--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\HybridFramework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>TestData1</t>
   </si>
@@ -47,13 +52,31 @@
   </si>
   <si>
     <t>TestData11</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>LaunchApplication</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>pratip3</t>
+  </si>
+  <si>
+    <t>neo.assault@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome@1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +88,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,19 +139,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,69 +455,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -19,64 +19,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t>TestData1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
-    <t>TestData3</t>
-  </si>
-  <si>
-    <t>TestData4</t>
-  </si>
-  <si>
-    <t>TestData5</t>
-  </si>
-  <si>
-    <t>TestData6</t>
-  </si>
-  <si>
-    <t>TestData7</t>
-  </si>
-  <si>
-    <t>TestData8</t>
-  </si>
-  <si>
-    <t>TestData9</t>
-  </si>
-  <si>
-    <t>TestData10</t>
-  </si>
-  <si>
-    <t>TestData11</t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>pratip3</t>
-  </si>
-  <si>
-    <t>neo.assault@gmail.com</t>
-  </si>
-  <si>
-    <t>Welcome@1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Creditcard</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Pratip</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>1111111111111111</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +76,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,9 +119,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -150,10 +129,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,22 +434,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -493,64 +472,34 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" display="neo.assault@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="Welcome@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
